--- a/HPC/Project experiment/hpc/hpc/scalable.xlsx
+++ b/HPC/Project experiment/hpc/hpc/scalable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Doc\NITK\S1\NITK\HPC\Project experiment\hpc\hpc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CA5E94-60FF-4815-B124-1DA9105367DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D32FA43-CE27-460A-9E6C-161C20B8B535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,65 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+  <si>
+    <t>steady_state_temp_L0</t>
+  </si>
+  <si>
+    <t>steady_state_temp</t>
+  </si>
+  <si>
+    <t>router_avg_temp</t>
+  </si>
+  <si>
+    <t>core_avg_temp_L0,</t>
+  </si>
+  <si>
+    <t>core_avg_temp_L1</t>
+  </si>
+  <si>
+    <t>mem_avg_temp_L0</t>
+  </si>
+  <si>
+    <t>mem_avg_temp_L1</t>
+  </si>
+  <si>
+    <t>total_area</t>
+  </si>
+  <si>
+    <t>avg_power</t>
+  </si>
+  <si>
+    <t>avg_cores_power</t>
+  </si>
+  <si>
+    <t>avg_routers_power</t>
+  </si>
+  <si>
+    <t>avg_power_per_router</t>
+  </si>
+  <si>
+    <t>layer_area</t>
+  </si>
+  <si>
+    <t>area_per_core</t>
+  </si>
+  <si>
+    <t>20*20*2</t>
+  </si>
+  <si>
+    <t>32*32*2</t>
+  </si>
+  <si>
+    <t>50*50*2</t>
+  </si>
+  <si>
+    <t>64*64*2</t>
+  </si>
+  <si>
+    <t>75*75*2</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -59,8 +117,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -341,15 +400,341 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>316.668274</v>
+      </c>
+      <c r="C2">
+        <v>395.22848499999998</v>
+      </c>
+      <c r="D2">
+        <v>441.35296599999998</v>
+      </c>
+      <c r="E2">
+        <v>481.14181500000001</v>
+      </c>
+      <c r="F2">
+        <v>511.771637</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>311.003174</v>
+      </c>
+      <c r="C3">
+        <v>378.13671900000003</v>
+      </c>
+      <c r="D3">
+        <v>402.03653000000003</v>
+      </c>
+      <c r="E3">
+        <v>425.02298000000002</v>
+      </c>
+      <c r="F3">
+        <v>442.54672199999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>28.606242999999999</v>
+      </c>
+      <c r="C4">
+        <v>29.939731999999999</v>
+      </c>
+      <c r="D4">
+        <v>31.092331000000001</v>
+      </c>
+      <c r="E4">
+        <v>32.057034000000002</v>
+      </c>
+      <c r="F4">
+        <v>32.798965000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>28.028357</v>
+      </c>
+      <c r="C5">
+        <v>28.664805999999999</v>
+      </c>
+      <c r="D5">
+        <v>29.063614000000001</v>
+      </c>
+      <c r="E5">
+        <v>29.503900999999999</v>
+      </c>
+      <c r="F5">
+        <v>29.833015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>26.477884</v>
+      </c>
+      <c r="C6">
+        <v>26.688856000000001</v>
+      </c>
+      <c r="D6">
+        <v>26.758016999999999</v>
+      </c>
+      <c r="E6">
+        <v>26.829972999999999</v>
+      </c>
+      <c r="F6">
+        <v>26.882342999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>26.396854000000001</v>
+      </c>
+      <c r="C7">
+        <v>26.616012999999999</v>
+      </c>
+      <c r="D7">
+        <v>26.842721999999998</v>
+      </c>
+      <c r="E7">
+        <v>27.072412</v>
+      </c>
+      <c r="F7">
+        <v>27.247161999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>25.899750000000001</v>
+      </c>
+      <c r="C8">
+        <v>25.991126999999999</v>
+      </c>
+      <c r="D8">
+        <v>26.057503000000001</v>
+      </c>
+      <c r="E8">
+        <v>26.102097000000001</v>
+      </c>
+      <c r="F8">
+        <v>26.135614</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>25.834038</v>
+      </c>
+      <c r="C9">
+        <v>25.969567999999999</v>
+      </c>
+      <c r="D9">
+        <v>26.130873000000001</v>
+      </c>
+      <c r="E9">
+        <v>26.268902000000001</v>
+      </c>
+      <c r="F9">
+        <v>26.373901</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>1710338000</v>
+      </c>
+      <c r="C10">
+        <v>3295609000</v>
+      </c>
+      <c r="D10">
+        <v>5513879000</v>
+      </c>
+      <c r="E10">
+        <v>7208206000</v>
+      </c>
+      <c r="F10">
+        <v>8531317000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C11">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="D11">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="E11">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="F11">
+        <v>6.0000000000000002E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1">
+        <v>9.8753630000000004E-7</v>
+      </c>
+      <c r="C12">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="D12">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="E12">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="F12">
+        <v>3.9999999999999998E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3.9755449999999997E-7</v>
+      </c>
+      <c r="C13" s="1">
+        <v>7.0134109999999997E-7</v>
+      </c>
+      <c r="D13">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="E13">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F13">
+        <v>1.9999999999999999E-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1">
+        <v>6.1791639999999996E-10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>9.6862810000000001E-10</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.2232169999999999E-9</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.43682E-9</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1.5994189999999999E-9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>863484160</v>
+      </c>
+      <c r="C15">
+        <v>1644980000</v>
+      </c>
+      <c r="D15">
+        <v>2725601000</v>
+      </c>
+      <c r="E15">
+        <v>3552910000</v>
+      </c>
+      <c r="F15">
+        <v>4199025000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>4695230</v>
+      </c>
+      <c r="C16">
+        <v>4695230</v>
+      </c>
+      <c r="D16">
+        <v>4695230</v>
+      </c>
+      <c r="E16">
+        <v>4695230</v>
+      </c>
+      <c r="F16">
+        <v>4695230</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>